--- a/data/trans_orig/P14C06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BA3612-9012-494B-BA64-D529781CF9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D360EF3-55DD-4308-9F24-B9D35FE0E92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E2737EC4-E313-4B0E-83EB-3C37AFFF2722}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C06CCDC5-0B70-47D1-AB15-D7E39A1A17A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="113">
   <si>
     <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2015 (Tasa respuesta: 0,67%)</t>
   </si>
@@ -125,16 +125,16 @@
     <t>19,13%</t>
   </si>
   <si>
-    <t>78,71%</t>
+    <t>78,53%</t>
   </si>
   <si>
     <t>42,62%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>35,08%</t>
@@ -146,16 +146,16 @@
     <t>42,4%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>81,83%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -167,7 +167,7 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>49,75%</t>
+    <t>50,81%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -233,25 +233,25 @@
     <t>76,88%</t>
   </si>
   <si>
-    <t>25,76%</t>
+    <t>24,38%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>43,46%</t>
+    <t>37,02%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>74,24%</t>
+    <t>75,62%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>56,54%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -263,16 +263,16 @@
     <t>62,34%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>28,16%</t>
   </si>
   <si>
     <t>90,46%</t>
@@ -281,79 +281,76 @@
     <t>12,12%</t>
   </si>
   <si>
-    <t>54,26%</t>
+    <t>46,84%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>46,73%</t>
+    <t>46,77%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>60,11%</t>
+    <t>60,85%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -362,19 +359,19 @@
     <t>11,9%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC07CFBC-2051-4711-88D3-F077A5EE1817}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3542DBB-1FDE-4EB3-BFCF-5EEA8078360C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2470,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2479,13 +2476,13 @@
         <v>2099</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2550,13 @@
         <v>11487</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -2568,13 +2565,13 @@
         <v>19300</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -2583,13 +2580,13 @@
         <v>30787</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2601,13 @@
         <v>2709</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2619,13 +2616,13 @@
         <v>10887</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -2634,13 +2631,13 @@
         <v>13596</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -2670,13 +2667,13 @@
         <v>4079</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -2685,13 +2682,13 @@
         <v>4079</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2744,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C06-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C06-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D360EF3-55DD-4308-9F24-B9D35FE0E92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{413C048C-25FB-42B5-B28F-E297EC481EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C06CCDC5-0B70-47D1-AB15-D7E39A1A17A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EF640C7-342C-4455-9A6A-8744DFD8BC09}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="113">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2015 (Tasa respuesta: 0,67%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="115">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la úlcera de estómago en 2016 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -125,16 +125,16 @@
     <t>19,13%</t>
   </si>
   <si>
-    <t>78,53%</t>
+    <t>78,58%</t>
   </si>
   <si>
     <t>42,62%</t>
   </si>
   <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>35,08%</t>
@@ -146,16 +146,16 @@
     <t>42,4%</t>
   </si>
   <si>
-    <t>81,83%</t>
+    <t>81,72%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -164,10 +164,13 @@
     <t>38,47%</t>
   </si>
   <si>
+    <t>80,13%</t>
+  </si>
+  <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>50,81%</t>
+    <t>56,13%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -215,7 +218,7 @@
     <t>42,74%</t>
   </si>
   <si>
-    <t>84,68%</t>
+    <t>85,45%</t>
   </si>
   <si>
     <t>49,39%</t>
@@ -224,7 +227,7 @@
     <t>57,26%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>14,55%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -239,7 +242,7 @@
     <t>83,67%</t>
   </si>
   <si>
-    <t>37,02%</t>
+    <t>42,56%</t>
   </si>
   <si>
     <t>23,12%</t>
@@ -251,7 +254,7 @@
     <t>16,33%</t>
   </si>
   <si>
-    <t>62,98%</t>
+    <t>57,44%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -263,94 +266,97 @@
     <t>62,34%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>46,84%</t>
+    <t>59,05%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>46,77%</t>
+    <t>53,04%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
+    <t>66,75%</t>
+  </si>
+  <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>60,85%</t>
+    <t>61,61%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>56,32%</t>
   </si>
   <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>63,53%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -359,19 +365,19 @@
     <t>11,9%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3542DBB-1FDE-4EB3-BFCF-5EEA8078360C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5E4CEA-6464-4BB6-82D5-19CBC519DFA5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1239,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1248,13 +1254,13 @@
         <v>1981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,7 +1316,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1320,13 +1326,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1369,13 +1375,13 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1402,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1418,13 +1424,13 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1467,13 +1473,13 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1538,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1553,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -1607,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1720,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1741,7 +1747,7 @@
         <v>981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -1756,7 +1762,7 @@
         <v>2047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
@@ -1792,7 +1798,7 @@
         <v>981</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>15</v>
@@ -1807,7 +1813,7 @@
         <v>981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>15</v>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1947,7 +1953,7 @@
         <v>2219</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>15</v>
@@ -1962,13 +1968,13 @@
         <v>2219</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +2004,7 @@
         <v>2166</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
@@ -2013,10 +2019,10 @@
         <v>2973</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -2055,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2126,7 +2132,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2141,7 +2147,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -2153,10 +2159,10 @@
         <v>5678</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -2168,10 +2174,10 @@
         <v>8749</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -2204,13 +2210,13 @@
         <v>1708</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2219,13 +2225,13 @@
         <v>1708</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2276,7 +2282,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2338,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2359,13 +2365,13 @@
         <v>5122</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -2374,13 +2380,13 @@
         <v>6257</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2416,13 @@
         <v>996</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -2425,13 +2431,13 @@
         <v>996</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2467,13 @@
         <v>2099</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -2476,13 +2482,13 @@
         <v>2099</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2556,13 @@
         <v>11487</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -2565,13 +2571,13 @@
         <v>19300</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M36" s="7">
         <v>27</v>
@@ -2580,13 +2586,13 @@
         <v>30787</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2607,13 @@
         <v>2709</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -2616,13 +2622,13 @@
         <v>10887</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -2631,13 +2637,13 @@
         <v>13596</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -2667,13 +2673,13 @@
         <v>4079</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -2682,13 +2688,13 @@
         <v>4079</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2750,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
